--- a/artfynd/A 1509-2023 artfynd.xlsx
+++ b/artfynd/A 1509-2023 artfynd.xlsx
@@ -683,12 +683,7 @@
         <v>120855818</v>
       </c>
       <c r="B2" t="n">
-        <v>79592</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>80258</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -714,6 +709,9 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Mogetorp, Mogetorp, Srm</t>
@@ -770,7 +768,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>På gammal solbelyst asp i vägkant. Även spår av asppraktbagge i basen.</t>
+          <t>På gammal solbelyst asp i vägkant. Även spår av asppraktbagge i basen. Mikroskoperad och artbestämd av Fredrik Jonsson.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -779,8 +777,18 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Fredrik Jonsson</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">

--- a/artfynd/A 1509-2023 artfynd.xlsx
+++ b/artfynd/A 1509-2023 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>120855818</v>
       </c>
       <c r="B2" t="n">
-        <v>80258</v>
+        <v>80259</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
